--- a/doc/database.xlsx
+++ b/doc/database.xlsx
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="prodis" sheetId="1" r:id="rId1"/>
     <sheet name="semester_list" sheetId="2" r:id="rId2"/>
-    <sheet name="matkul_list" sheetId="11" r:id="rId3"/>
-    <sheet name="old_matkul_list" sheetId="10" r:id="rId4"/>
-    <sheet name="matkul_list_sesi" sheetId="3" r:id="rId5"/>
-    <sheet name="SESI LIST" sheetId="4" r:id="rId6"/>
+    <sheet name="matkul_list_baru" sheetId="12" r:id="rId3"/>
+    <sheet name="matkul_list" sheetId="11" r:id="rId4"/>
+    <sheet name="old_matkul_list" sheetId="10" r:id="rId5"/>
+    <sheet name="matkul_list_sesi" sheetId="3" r:id="rId6"/>
+    <sheet name="SESI LIST" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2067" uniqueCount="408">
   <si>
     <t>id</t>
   </si>
@@ -1337,7 +1338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1356,6 +1357,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2200,15 +2204,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="53.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="4"/>
+    <col min="6" max="6" width="9.140625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2227,7 +2231,7 @@
       <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="16" t="s">
         <v>275</v>
       </c>
     </row>
@@ -2247,7 +2251,7 @@
       <c r="E2" t="s">
         <v>138</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="16" t="s">
         <v>399</v>
       </c>
     </row>
@@ -2267,7 +2271,7 @@
       <c r="E3" t="s">
         <v>139</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="16">
         <v>10</v>
       </c>
     </row>
@@ -2287,7 +2291,7 @@
       <c r="E4" t="s">
         <v>140</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="16">
         <v>12</v>
       </c>
     </row>
@@ -2307,7 +2311,7 @@
       <c r="E5" t="s">
         <v>141</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="16">
         <v>14</v>
       </c>
     </row>
@@ -2327,7 +2331,7 @@
       <c r="E6" t="s">
         <v>191</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="16" t="s">
         <v>405</v>
       </c>
     </row>
@@ -2347,7 +2351,7 @@
       <c r="E7" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="16" t="s">
         <v>404</v>
       </c>
     </row>
@@ -2367,7 +2371,7 @@
       <c r="E8" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="16" t="s">
         <v>400</v>
       </c>
     </row>
@@ -2387,7 +2391,7 @@
       <c r="E9" t="s">
         <v>218</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="16">
         <v>16</v>
       </c>
     </row>
@@ -2407,7 +2411,7 @@
       <c r="E10" t="s">
         <v>142</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="16">
         <v>13</v>
       </c>
     </row>
@@ -2427,7 +2431,7 @@
       <c r="E11" t="s">
         <v>143</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="16" t="s">
         <v>399</v>
       </c>
     </row>
@@ -2447,7 +2451,7 @@
       <c r="E12" t="s">
         <v>144</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="16">
         <v>11</v>
       </c>
     </row>
@@ -2467,7 +2471,7 @@
       <c r="E13" t="s">
         <v>145</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="16" t="s">
         <v>400</v>
       </c>
     </row>
@@ -2487,7 +2491,7 @@
       <c r="E14" t="s">
         <v>146</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="16" t="s">
         <v>401</v>
       </c>
     </row>
@@ -2507,7 +2511,7 @@
       <c r="E15" t="s">
         <v>147</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="16" t="s">
         <v>402</v>
       </c>
     </row>
@@ -2527,7 +2531,7 @@
       <c r="E16" t="s">
         <v>148</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="16">
         <v>15</v>
       </c>
     </row>
@@ -2547,7 +2551,7 @@
       <c r="E17" t="s">
         <v>149</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="16" t="s">
         <v>403</v>
       </c>
     </row>
@@ -2567,7 +2571,7 @@
       <c r="E18" t="s">
         <v>150</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="16" t="s">
         <v>403</v>
       </c>
     </row>
@@ -2587,7 +2591,7 @@
       <c r="E19" t="s">
         <v>143</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="16" t="s">
         <v>399</v>
       </c>
     </row>
@@ -2607,7 +2611,7 @@
       <c r="E20" t="s">
         <v>151</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="16">
         <v>11</v>
       </c>
     </row>
@@ -2627,7 +2631,7 @@
       <c r="E21" t="s">
         <v>152</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="16" t="s">
         <v>401</v>
       </c>
     </row>
@@ -2647,7 +2651,7 @@
       <c r="E22" t="s">
         <v>41</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="16" t="s">
         <v>400</v>
       </c>
     </row>
@@ -2667,7 +2671,7 @@
       <c r="E23" t="s">
         <v>147</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="16" t="s">
         <v>402</v>
       </c>
     </row>
@@ -2687,7 +2691,7 @@
       <c r="E24" t="s">
         <v>153</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="16" t="s">
         <v>399</v>
       </c>
     </row>
@@ -2707,7 +2711,7 @@
       <c r="E25" t="s">
         <v>154</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="16" t="s">
         <v>400</v>
       </c>
     </row>
@@ -2727,7 +2731,7 @@
       <c r="E26" t="s">
         <v>155</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="16" t="s">
         <v>402</v>
       </c>
     </row>
@@ -2747,7 +2751,7 @@
       <c r="E27" t="s">
         <v>156</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="16" t="s">
         <v>401</v>
       </c>
     </row>
@@ -2767,7 +2771,7 @@
       <c r="E28" t="s">
         <v>157</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="16">
         <v>13</v>
       </c>
     </row>
@@ -2787,7 +2791,7 @@
       <c r="E29" t="s">
         <v>158</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="16">
         <v>11</v>
       </c>
     </row>
@@ -2807,7 +2811,7 @@
       <c r="E30" t="s">
         <v>149</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="16" t="s">
         <v>403</v>
       </c>
     </row>
@@ -2827,7 +2831,7 @@
       <c r="E31" t="s">
         <v>159</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" s="16" t="s">
         <v>404</v>
       </c>
     </row>
@@ -2847,7 +2851,7 @@
       <c r="E32" t="s">
         <v>146</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" s="16" t="s">
         <v>405</v>
       </c>
     </row>
@@ -2867,7 +2871,7 @@
       <c r="E33" t="s">
         <v>160</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="16">
         <v>12</v>
       </c>
     </row>
@@ -2887,7 +2891,7 @@
       <c r="E34" t="s">
         <v>161</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="16" t="s">
         <v>406</v>
       </c>
     </row>
@@ -2907,7 +2911,7 @@
       <c r="E35" t="s">
         <v>162</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" s="16" t="s">
         <v>407</v>
       </c>
     </row>
@@ -2927,7 +2931,7 @@
       <c r="E36" t="s">
         <v>163</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="16">
         <v>10</v>
       </c>
     </row>
@@ -2947,7 +2951,7 @@
       <c r="E37" t="s">
         <v>164</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="16">
         <v>10</v>
       </c>
     </row>
@@ -2967,7 +2971,7 @@
       <c r="E38" t="s">
         <v>152</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F38" s="16" t="s">
         <v>405</v>
       </c>
     </row>
@@ -2987,7 +2991,7 @@
       <c r="E39" t="s">
         <v>165</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="F39" s="16" t="s">
         <v>406</v>
       </c>
     </row>
@@ -3007,7 +3011,7 @@
       <c r="E40" t="s">
         <v>166</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="16">
         <v>16</v>
       </c>
     </row>
@@ -3027,7 +3031,7 @@
       <c r="E41" t="s">
         <v>167</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="16">
         <v>14</v>
       </c>
     </row>
@@ -3047,7 +3051,7 @@
       <c r="E42" t="s">
         <v>160</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F42" s="16">
         <v>12</v>
       </c>
     </row>
@@ -3067,7 +3071,7 @@
       <c r="E43" t="s">
         <v>168</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="F43" s="16" t="s">
         <v>404</v>
       </c>
     </row>
@@ -3087,7 +3091,7 @@
       <c r="E44" t="s">
         <v>169</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="F44" s="16" t="s">
         <v>407</v>
       </c>
     </row>
@@ -3107,7 +3111,7 @@
       <c r="E45" t="s">
         <v>170</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F45" s="16" t="s">
         <v>404</v>
       </c>
     </row>
@@ -3127,7 +3131,7 @@
       <c r="E46" t="s">
         <v>156</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="F46" s="16" t="s">
         <v>405</v>
       </c>
     </row>
@@ -3147,7 +3151,7 @@
       <c r="E47" t="s">
         <v>171</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="F47" s="16" t="s">
         <v>406</v>
       </c>
     </row>
@@ -3167,7 +3171,7 @@
       <c r="E48" t="s">
         <v>167</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F48" s="16">
         <v>14</v>
       </c>
     </row>
@@ -3187,7 +3191,7 @@
       <c r="E49" t="s">
         <v>172</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F49" s="16">
         <v>12</v>
       </c>
     </row>
@@ -3207,7 +3211,7 @@
       <c r="E50" t="s">
         <v>162</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="F50" s="16" t="s">
         <v>407</v>
       </c>
     </row>
@@ -3227,7 +3231,7 @@
       <c r="E51" t="s">
         <v>173</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F51" s="16">
         <v>10</v>
       </c>
     </row>
@@ -3247,7 +3251,7 @@
       <c r="E52" t="s">
         <v>174</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F52" s="16">
         <v>16</v>
       </c>
     </row>
@@ -3267,7 +3271,7 @@
       <c r="E53" t="s">
         <v>145</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="F53" s="16" t="s">
         <v>407</v>
       </c>
     </row>
@@ -3287,7 +3291,7 @@
       <c r="E54" t="s">
         <v>175</v>
       </c>
-      <c r="F54" s="4">
+      <c r="F54" s="16">
         <v>12</v>
       </c>
     </row>
@@ -3307,7 +3311,7 @@
       <c r="E55" t="s">
         <v>176</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F55" s="16">
         <v>10</v>
       </c>
     </row>
@@ -3327,7 +3331,7 @@
       <c r="E56" t="s">
         <v>66</v>
       </c>
-      <c r="F56" s="4" t="s">
+      <c r="F56" s="16" t="s">
         <v>404</v>
       </c>
     </row>
@@ -3347,7 +3351,7 @@
       <c r="E57" t="s">
         <v>177</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="F57" s="16" t="s">
         <v>405</v>
       </c>
     </row>
@@ -3367,7 +3371,7 @@
       <c r="E58" t="s">
         <v>178</v>
       </c>
-      <c r="F58" s="4">
+      <c r="F58" s="16">
         <v>14</v>
       </c>
     </row>
@@ -3387,7 +3391,7 @@
       <c r="E59" t="s">
         <v>179</v>
       </c>
-      <c r="F59" s="4" t="s">
+      <c r="F59" s="16" t="s">
         <v>406</v>
       </c>
     </row>
@@ -3407,7 +3411,7 @@
       <c r="E60" t="s">
         <v>152</v>
       </c>
-      <c r="F60" s="4" t="s">
+      <c r="F60" s="16" t="s">
         <v>405</v>
       </c>
     </row>
@@ -3427,7 +3431,7 @@
       <c r="E61" t="s">
         <v>180</v>
       </c>
-      <c r="F61" s="4">
+      <c r="F61" s="16">
         <v>16</v>
       </c>
     </row>
@@ -3447,7 +3451,7 @@
       <c r="E62" t="s">
         <v>181</v>
       </c>
-      <c r="F62" s="4">
+      <c r="F62" s="16">
         <v>17</v>
       </c>
     </row>
@@ -3467,7 +3471,7 @@
       <c r="E63" t="s">
         <v>177</v>
       </c>
-      <c r="F63" s="4" t="s">
+      <c r="F63" s="16" t="s">
         <v>406</v>
       </c>
     </row>
@@ -3487,7 +3491,7 @@
       <c r="E64" t="s">
         <v>182</v>
       </c>
-      <c r="F64" s="4" t="s">
+      <c r="F64" s="16" t="s">
         <v>407</v>
       </c>
     </row>
@@ -3507,7 +3511,7 @@
       <c r="E65" t="s">
         <v>183</v>
       </c>
-      <c r="F65" s="4" t="s">
+      <c r="F65" s="16" t="s">
         <v>404</v>
       </c>
     </row>
@@ -3527,7 +3531,7 @@
       <c r="E66" t="s">
         <v>184</v>
       </c>
-      <c r="F66" s="4">
+      <c r="F66" s="16">
         <v>10</v>
       </c>
     </row>
@@ -3547,7 +3551,7 @@
       <c r="E67" t="s">
         <v>185</v>
       </c>
-      <c r="F67" s="4">
+      <c r="F67" s="16">
         <v>14</v>
       </c>
     </row>
@@ -3567,7 +3571,7 @@
       <c r="E68" t="s">
         <v>186</v>
       </c>
-      <c r="F68" s="4">
+      <c r="F68" s="16">
         <v>12</v>
       </c>
     </row>
@@ -3587,7 +3591,7 @@
       <c r="E69" t="s">
         <v>187</v>
       </c>
-      <c r="F69" s="4" t="s">
+      <c r="F69" s="16" t="s">
         <v>407</v>
       </c>
     </row>
@@ -3607,7 +3611,7 @@
       <c r="E70" t="s">
         <v>188</v>
       </c>
-      <c r="F70" s="4">
+      <c r="F70" s="16">
         <v>10</v>
       </c>
     </row>
@@ -3627,7 +3631,7 @@
       <c r="E71" t="s">
         <v>189</v>
       </c>
-      <c r="F71" s="4">
+      <c r="F71" s="16">
         <v>12</v>
       </c>
     </row>
@@ -3647,7 +3651,7 @@
       <c r="E72" t="s">
         <v>190</v>
       </c>
-      <c r="F72" s="4">
+      <c r="F72" s="16">
         <v>16</v>
       </c>
     </row>
@@ -3667,7 +3671,7 @@
       <c r="E73" t="s">
         <v>178</v>
       </c>
-      <c r="F73" s="4">
+      <c r="F73" s="16">
         <v>14</v>
       </c>
     </row>
@@ -3687,7 +3691,7 @@
       <c r="E74" t="s">
         <v>191</v>
       </c>
-      <c r="F74" s="4" t="s">
+      <c r="F74" s="16" t="s">
         <v>405</v>
       </c>
     </row>
@@ -3707,7 +3711,7 @@
       <c r="E75" t="s">
         <v>179</v>
       </c>
-      <c r="F75" s="4" t="s">
+      <c r="F75" s="16" t="s">
         <v>406</v>
       </c>
     </row>
@@ -3727,7 +3731,7 @@
       <c r="E76" t="s">
         <v>192</v>
       </c>
-      <c r="F76" s="4" t="s">
+      <c r="F76" s="16" t="s">
         <v>404</v>
       </c>
     </row>
@@ -3747,7 +3751,7 @@
       <c r="E77" t="s">
         <v>193</v>
       </c>
-      <c r="F77" s="4" t="s">
+      <c r="F77" s="16" t="s">
         <v>404</v>
       </c>
     </row>
@@ -3767,7 +3771,7 @@
       <c r="E78" t="s">
         <v>194</v>
       </c>
-      <c r="F78" s="4" t="s">
+      <c r="F78" s="16" t="s">
         <v>407</v>
       </c>
     </row>
@@ -3787,7 +3791,7 @@
       <c r="E79" t="s">
         <v>195</v>
       </c>
-      <c r="F79" s="4">
+      <c r="F79" s="16">
         <v>10</v>
       </c>
     </row>
@@ -3807,7 +3811,7 @@
       <c r="E80" t="s">
         <v>196</v>
       </c>
-      <c r="F80" s="4" t="s">
+      <c r="F80" s="16" t="s">
         <v>405</v>
       </c>
     </row>
@@ -3827,7 +3831,7 @@
       <c r="E81" t="s">
         <v>197</v>
       </c>
-      <c r="F81" s="4">
+      <c r="F81" s="16">
         <v>12</v>
       </c>
     </row>
@@ -3847,7 +3851,7 @@
       <c r="E82" t="s">
         <v>198</v>
       </c>
-      <c r="F82" s="4">
+      <c r="F82" s="16">
         <v>14</v>
       </c>
     </row>
@@ -3867,7 +3871,7 @@
       <c r="E83" t="s">
         <v>87</v>
       </c>
-      <c r="F83" s="4" t="s">
+      <c r="F83" s="16" t="s">
         <v>406</v>
       </c>
     </row>
@@ -3887,7 +3891,7 @@
       <c r="E84" t="s">
         <v>199</v>
       </c>
-      <c r="F84" s="4">
+      <c r="F84" s="16">
         <v>10</v>
       </c>
     </row>
@@ -3907,7 +3911,7 @@
       <c r="E85" t="s">
         <v>200</v>
       </c>
-      <c r="F85" s="4" t="s">
+      <c r="F85" s="16" t="s">
         <v>407</v>
       </c>
     </row>
@@ -3927,7 +3931,7 @@
       <c r="E86" t="s">
         <v>146</v>
       </c>
-      <c r="F86" s="4" t="s">
+      <c r="F86" s="16" t="s">
         <v>405</v>
       </c>
     </row>
@@ -3947,7 +3951,7 @@
       <c r="E87" t="s">
         <v>167</v>
       </c>
-      <c r="F87" s="4">
+      <c r="F87" s="16">
         <v>12</v>
       </c>
     </row>
@@ -3967,7 +3971,7 @@
       <c r="E88" t="s">
         <v>201</v>
       </c>
-      <c r="F88" s="4" t="s">
+      <c r="F88" s="16" t="s">
         <v>404</v>
       </c>
     </row>
@@ -3987,7 +3991,7 @@
       <c r="E89" t="s">
         <v>202</v>
       </c>
-      <c r="F89" s="4" t="s">
+      <c r="F89" s="16" t="s">
         <v>406</v>
       </c>
     </row>
@@ -4007,7 +4011,7 @@
       <c r="E90" t="s">
         <v>203</v>
       </c>
-      <c r="F90" s="4">
+      <c r="F90" s="16">
         <v>12</v>
       </c>
     </row>
@@ -4027,7 +4031,7 @@
       <c r="E91" t="s">
         <v>143</v>
       </c>
-      <c r="F91" s="4" t="s">
+      <c r="F91" s="16" t="s">
         <v>406</v>
       </c>
     </row>
@@ -4047,7 +4051,7 @@
       <c r="E92" t="s">
         <v>66</v>
       </c>
-      <c r="F92" s="4" t="s">
+      <c r="F92" s="16" t="s">
         <v>404</v>
       </c>
     </row>
@@ -4067,7 +4071,7 @@
       <c r="E93" t="s">
         <v>214</v>
       </c>
-      <c r="F93" s="4" t="s">
+      <c r="F93" s="16" t="s">
         <v>407</v>
       </c>
     </row>
@@ -4087,7 +4091,7 @@
       <c r="E94" t="s">
         <v>164</v>
       </c>
-      <c r="F94" s="4">
+      <c r="F94" s="16">
         <v>10</v>
       </c>
     </row>
@@ -4107,7 +4111,7 @@
       <c r="E95" t="s">
         <v>157</v>
       </c>
-      <c r="F95" s="4">
+      <c r="F95" s="16">
         <v>13</v>
       </c>
     </row>
@@ -4127,7 +4131,7 @@
       <c r="E96" t="s">
         <v>146</v>
       </c>
-      <c r="F96" s="4" t="s">
+      <c r="F96" s="16" t="s">
         <v>405</v>
       </c>
     </row>
@@ -4147,7 +4151,7 @@
       <c r="E97" t="s">
         <v>204</v>
       </c>
-      <c r="F97" s="4" t="s">
+      <c r="F97" s="16" t="s">
         <v>406</v>
       </c>
     </row>
@@ -4167,7 +4171,7 @@
       <c r="E98" t="s">
         <v>205</v>
       </c>
-      <c r="F98" s="4" t="s">
+      <c r="F98" s="16" t="s">
         <v>407</v>
       </c>
     </row>
@@ -4187,7 +4191,7 @@
       <c r="E99" t="s">
         <v>206</v>
       </c>
-      <c r="F99" s="4">
+      <c r="F99" s="16">
         <v>14</v>
       </c>
     </row>
@@ -4207,7 +4211,7 @@
       <c r="E100" t="s">
         <v>207</v>
       </c>
-      <c r="F100" s="4">
+      <c r="F100" s="16">
         <v>10</v>
       </c>
     </row>
@@ -4227,7 +4231,7 @@
       <c r="E101" t="s">
         <v>208</v>
       </c>
-      <c r="F101" s="4">
+      <c r="F101" s="16">
         <v>12</v>
       </c>
     </row>
@@ -4247,7 +4251,7 @@
       <c r="E102" t="s">
         <v>99</v>
       </c>
-      <c r="F102" s="4">
+      <c r="F102" s="16">
         <v>10</v>
       </c>
     </row>
@@ -4267,7 +4271,7 @@
       <c r="E103" t="s">
         <v>209</v>
       </c>
-      <c r="F103" s="4" t="s">
+      <c r="F103" s="16" t="s">
         <v>406</v>
       </c>
     </row>
@@ -4287,7 +4291,7 @@
       <c r="E104" t="s">
         <v>140</v>
       </c>
-      <c r="F104" s="4">
+      <c r="F104" s="16">
         <v>12</v>
       </c>
     </row>
@@ -4307,7 +4311,7 @@
       <c r="E105" t="s">
         <v>210</v>
       </c>
-      <c r="F105" s="4" t="s">
+      <c r="F105" s="16" t="s">
         <v>407</v>
       </c>
     </row>
@@ -4327,7 +4331,7 @@
       <c r="E106" t="s">
         <v>211</v>
       </c>
-      <c r="F106" s="4">
+      <c r="F106" s="16">
         <v>14</v>
       </c>
     </row>
@@ -4347,7 +4351,7 @@
       <c r="E107" t="s">
         <v>212</v>
       </c>
-      <c r="F107" s="4" t="s">
+      <c r="F107" s="16" t="s">
         <v>405</v>
       </c>
     </row>
@@ -4367,7 +4371,7 @@
       <c r="E108" t="s">
         <v>110</v>
       </c>
-      <c r="F108" s="4" t="s">
+      <c r="F108" s="16" t="s">
         <v>404</v>
       </c>
     </row>
@@ -4387,7 +4391,7 @@
       <c r="E109" t="s">
         <v>218</v>
       </c>
-      <c r="F109" s="4">
+      <c r="F109" s="16">
         <v>16</v>
       </c>
     </row>
@@ -4407,7 +4411,7 @@
       <c r="E110" t="s">
         <v>164</v>
       </c>
-      <c r="F110" s="4">
+      <c r="F110" s="16">
         <v>10</v>
       </c>
     </row>
@@ -4427,7 +4431,7 @@
       <c r="E111" t="s">
         <v>143</v>
       </c>
-      <c r="F111" s="4" t="s">
+      <c r="F111" s="16" t="s">
         <v>406</v>
       </c>
     </row>
@@ -4447,7 +4451,7 @@
       <c r="E112" t="s">
         <v>213</v>
       </c>
-      <c r="F112" s="4" t="s">
+      <c r="F112" s="16" t="s">
         <v>404</v>
       </c>
     </row>
@@ -4467,7 +4471,7 @@
       <c r="E113" t="s">
         <v>146</v>
       </c>
-      <c r="F113" s="4" t="s">
+      <c r="F113" s="16" t="s">
         <v>405</v>
       </c>
     </row>
@@ -4487,7 +4491,7 @@
       <c r="E114" t="s">
         <v>214</v>
       </c>
-      <c r="F114" s="4" t="s">
+      <c r="F114" s="16" t="s">
         <v>407</v>
       </c>
     </row>
@@ -4507,7 +4511,7 @@
       <c r="E115" t="s">
         <v>215</v>
       </c>
-      <c r="F115" s="4">
+      <c r="F115" s="16">
         <v>14</v>
       </c>
     </row>
@@ -4527,7 +4531,7 @@
       <c r="E116" t="s">
         <v>216</v>
       </c>
-      <c r="F116" s="4">
+      <c r="F116" s="16">
         <v>16</v>
       </c>
     </row>
@@ -4547,7 +4551,7 @@
       <c r="E117" t="s">
         <v>217</v>
       </c>
-      <c r="F117" s="4">
+      <c r="F117" s="16">
         <v>12</v>
       </c>
     </row>
@@ -4567,7 +4571,7 @@
       <c r="E118" t="s">
         <v>204</v>
       </c>
-      <c r="F118" s="4" t="s">
+      <c r="F118" s="16" t="s">
         <v>406</v>
       </c>
     </row>
@@ -4587,7 +4591,7 @@
       <c r="E119" t="s">
         <v>205</v>
       </c>
-      <c r="F119" s="4" t="s">
+      <c r="F119" s="16" t="s">
         <v>407</v>
       </c>
     </row>
@@ -4607,7 +4611,7 @@
       <c r="E120" t="s">
         <v>156</v>
       </c>
-      <c r="F120" s="4" t="s">
+      <c r="F120" s="16" t="s">
         <v>405</v>
       </c>
     </row>
@@ -4627,7 +4631,7 @@
       <c r="E121" t="s">
         <v>218</v>
       </c>
-      <c r="F121" s="4">
+      <c r="F121" s="16">
         <v>16</v>
       </c>
     </row>
@@ -4647,7 +4651,7 @@
       <c r="E122" t="s">
         <v>206</v>
       </c>
-      <c r="F122" s="4">
+      <c r="F122" s="16">
         <v>14</v>
       </c>
     </row>
@@ -4667,7 +4671,7 @@
       <c r="E123" t="s">
         <v>207</v>
       </c>
-      <c r="F123" s="4">
+      <c r="F123" s="16">
         <v>10</v>
       </c>
     </row>
@@ -4687,7 +4691,7 @@
       <c r="E124" t="s">
         <v>110</v>
       </c>
-      <c r="F124" s="4" t="s">
+      <c r="F124" s="16" t="s">
         <v>404</v>
       </c>
     </row>
@@ -4707,7 +4711,7 @@
       <c r="E125" t="s">
         <v>208</v>
       </c>
-      <c r="F125" s="4">
+      <c r="F125" s="16">
         <v>12</v>
       </c>
     </row>
@@ -4727,7 +4731,7 @@
       <c r="E126" t="s">
         <v>152</v>
       </c>
-      <c r="F126" s="4" t="s">
+      <c r="F126" s="16" t="s">
         <v>405</v>
       </c>
     </row>
@@ -4747,7 +4751,7 @@
       <c r="E127" t="s">
         <v>219</v>
       </c>
-      <c r="F127" s="4">
+      <c r="F127" s="16">
         <v>14</v>
       </c>
     </row>
@@ -4767,7 +4771,7 @@
       <c r="E128" t="s">
         <v>220</v>
       </c>
-      <c r="F128" s="4" t="s">
+      <c r="F128" s="16" t="s">
         <v>404</v>
       </c>
     </row>
@@ -4787,7 +4791,7 @@
       <c r="E129" t="s">
         <v>221</v>
       </c>
-      <c r="F129" s="4">
+      <c r="F129" s="16">
         <v>16</v>
       </c>
     </row>
@@ -4807,7 +4811,7 @@
       <c r="E130" t="s">
         <v>222</v>
       </c>
-      <c r="F130" s="4">
+      <c r="F130" s="16">
         <v>12</v>
       </c>
     </row>
@@ -4827,7 +4831,7 @@
       <c r="E131" t="s">
         <v>223</v>
       </c>
-      <c r="F131" s="4">
+      <c r="F131" s="16">
         <v>10</v>
       </c>
     </row>
@@ -4847,7 +4851,7 @@
       <c r="E132" t="s">
         <v>224</v>
       </c>
-      <c r="F132" s="4" t="s">
+      <c r="F132" s="16" t="s">
         <v>407</v>
       </c>
     </row>
@@ -4867,7 +4871,7 @@
       <c r="E133" t="s">
         <v>225</v>
       </c>
-      <c r="F133" s="4" t="s">
+      <c r="F133" s="16" t="s">
         <v>406</v>
       </c>
     </row>
@@ -4887,7 +4891,7 @@
       <c r="E134" t="s">
         <v>156</v>
       </c>
-      <c r="F134" s="4" t="s">
+      <c r="F134" s="16" t="s">
         <v>405</v>
       </c>
     </row>
@@ -4907,7 +4911,7 @@
       <c r="E135" t="s">
         <v>226</v>
       </c>
-      <c r="F135" s="4" t="s">
+      <c r="F135" s="16" t="s">
         <v>404</v>
       </c>
     </row>
@@ -4927,7 +4931,7 @@
       <c r="E136" t="s">
         <v>227</v>
       </c>
-      <c r="F136" s="4" t="s">
+      <c r="F136" s="16" t="s">
         <v>406</v>
       </c>
     </row>
@@ -4947,7 +4951,7 @@
       <c r="E137" t="s">
         <v>228</v>
       </c>
-      <c r="F137" s="4">
+      <c r="F137" s="16">
         <v>12</v>
       </c>
     </row>
@@ -4967,7 +4971,7 @@
       <c r="E138" t="s">
         <v>229</v>
       </c>
-      <c r="F138" s="4" t="s">
+      <c r="F138" s="16" t="s">
         <v>407</v>
       </c>
     </row>
@@ -4987,7 +4991,7 @@
       <c r="E139" t="s">
         <v>230</v>
       </c>
-      <c r="F139" s="4">
+      <c r="F139" s="16">
         <v>14</v>
       </c>
     </row>
@@ -5007,7 +5011,7 @@
       <c r="E140" t="s">
         <v>231</v>
       </c>
-      <c r="F140" s="4">
+      <c r="F140" s="16">
         <v>10</v>
       </c>
     </row>
@@ -5027,7 +5031,7 @@
       <c r="E141" t="s">
         <v>232</v>
       </c>
-      <c r="F141" s="4">
+      <c r="F141" s="16">
         <v>10</v>
       </c>
     </row>
@@ -5047,7 +5051,7 @@
       <c r="E142" t="s">
         <v>233</v>
       </c>
-      <c r="F142" s="4">
+      <c r="F142" s="16">
         <v>14</v>
       </c>
     </row>
@@ -5067,7 +5071,7 @@
       <c r="E143" t="s">
         <v>234</v>
       </c>
-      <c r="F143" s="4" t="s">
+      <c r="F143" s="16" t="s">
         <v>404</v>
       </c>
     </row>
@@ -5087,7 +5091,7 @@
       <c r="E144" t="s">
         <v>214</v>
       </c>
-      <c r="F144" s="4" t="s">
+      <c r="F144" s="16" t="s">
         <v>406</v>
       </c>
     </row>
@@ -5107,7 +5111,7 @@
       <c r="E145" t="s">
         <v>228</v>
       </c>
-      <c r="F145" s="4">
+      <c r="F145" s="16">
         <v>12</v>
       </c>
     </row>
@@ -5127,7 +5131,7 @@
       <c r="E146" t="s">
         <v>229</v>
       </c>
-      <c r="F146" s="4" t="s">
+      <c r="F146" s="16" t="s">
         <v>407</v>
       </c>
     </row>
@@ -5147,7 +5151,7 @@
       <c r="E147" t="s">
         <v>87</v>
       </c>
-      <c r="F147" s="4" t="s">
+      <c r="F147" s="16" t="s">
         <v>405</v>
       </c>
     </row>
@@ -5167,7 +5171,7 @@
       <c r="E148" t="s">
         <v>227</v>
       </c>
-      <c r="F148" s="4" t="e">
+      <c r="F148" s="16" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -5187,7 +5191,7 @@
       <c r="E149" t="s">
         <v>228</v>
       </c>
-      <c r="F149" s="4" t="e">
+      <c r="F149" s="16" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -5207,7 +5211,7 @@
       <c r="E150" t="s">
         <v>230</v>
       </c>
-      <c r="F150" s="4" t="e">
+      <c r="F150" s="16" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -5227,7 +5231,7 @@
       <c r="E151" t="s">
         <v>146</v>
       </c>
-      <c r="F151" s="4" t="s">
+      <c r="F151" s="16" t="s">
         <v>405</v>
       </c>
     </row>
@@ -5247,7 +5251,7 @@
       <c r="E152" t="s">
         <v>225</v>
       </c>
-      <c r="F152" s="4" t="s">
+      <c r="F152" s="16" t="s">
         <v>406</v>
       </c>
     </row>
@@ -5267,7 +5271,7 @@
       <c r="E153" t="s">
         <v>226</v>
       </c>
-      <c r="F153" s="4" t="s">
+      <c r="F153" s="16" t="s">
         <v>404</v>
       </c>
     </row>
@@ -5287,7 +5291,7 @@
       <c r="E154" t="s">
         <v>224</v>
       </c>
-      <c r="F154" s="4" t="s">
+      <c r="F154" s="16" t="s">
         <v>407</v>
       </c>
     </row>
@@ -5307,7 +5311,7 @@
       <c r="E155" t="s">
         <v>232</v>
       </c>
-      <c r="F155" s="4">
+      <c r="F155" s="16">
         <v>10</v>
       </c>
     </row>
@@ -5327,7 +5331,7 @@
       <c r="E156" t="s">
         <v>222</v>
       </c>
-      <c r="F156" s="4">
+      <c r="F156" s="16">
         <v>12</v>
       </c>
     </row>
@@ -5347,7 +5351,7 @@
       <c r="E157" t="s">
         <v>233</v>
       </c>
-      <c r="F157" s="4">
+      <c r="F157" s="16">
         <v>14</v>
       </c>
     </row>
@@ -5367,7 +5371,7 @@
       <c r="E158" t="s">
         <v>221</v>
       </c>
-      <c r="F158" s="4">
+      <c r="F158" s="16">
         <v>16</v>
       </c>
     </row>
@@ -5387,7 +5391,7 @@
       <c r="E159" t="s">
         <v>235</v>
       </c>
-      <c r="F159" s="4" t="s">
+      <c r="F159" s="16" t="s">
         <v>402</v>
       </c>
     </row>
@@ -5407,7 +5411,7 @@
       <c r="E160" t="s">
         <v>236</v>
       </c>
-      <c r="F160" s="4" t="s">
+      <c r="F160" s="16" t="s">
         <v>400</v>
       </c>
     </row>
@@ -5427,7 +5431,7 @@
       <c r="E161" t="s">
         <v>143</v>
       </c>
-      <c r="F161" s="4" t="s">
+      <c r="F161" s="16" t="s">
         <v>399</v>
       </c>
     </row>
@@ -5447,7 +5451,7 @@
       <c r="E162" t="s">
         <v>196</v>
       </c>
-      <c r="F162" s="4" t="s">
+      <c r="F162" s="16" t="s">
         <v>405</v>
       </c>
     </row>
@@ -5467,7 +5471,7 @@
       <c r="E163" t="s">
         <v>136</v>
       </c>
-      <c r="F163" s="4">
+      <c r="F163" s="16">
         <v>11</v>
       </c>
     </row>
@@ -5487,7 +5491,7 @@
       <c r="E164" t="s">
         <v>243</v>
       </c>
-      <c r="F164" s="4">
+      <c r="F164" s="16">
         <v>13</v>
       </c>
     </row>
@@ -5507,7 +5511,7 @@
       <c r="E165" t="s">
         <v>148</v>
       </c>
-      <c r="F165" s="4">
+      <c r="F165" s="16">
         <v>15</v>
       </c>
     </row>
@@ -5527,7 +5531,7 @@
       <c r="E166" t="s">
         <v>237</v>
       </c>
-      <c r="F166" s="4" t="s">
+      <c r="F166" s="16" t="s">
         <v>401</v>
       </c>
     </row>
@@ -5547,7 +5551,7 @@
       <c r="E167" t="s">
         <v>238</v>
       </c>
-      <c r="F167" s="4">
+      <c r="F167" s="16">
         <v>13</v>
       </c>
     </row>
@@ -5567,7 +5571,7 @@
       <c r="E168" t="s">
         <v>239</v>
       </c>
-      <c r="F168" s="4" t="s">
+      <c r="F168" s="16" t="s">
         <v>400</v>
       </c>
     </row>
@@ -5587,7 +5591,7 @@
       <c r="E169" t="s">
         <v>240</v>
       </c>
-      <c r="F169" s="4" t="s">
+      <c r="F169" s="16" t="s">
         <v>403</v>
       </c>
     </row>
@@ -5607,7 +5611,7 @@
       <c r="E170" t="s">
         <v>158</v>
       </c>
-      <c r="F170" s="4">
+      <c r="F170" s="16">
         <v>11</v>
       </c>
     </row>
@@ -5627,7 +5631,7 @@
       <c r="E171" t="s">
         <v>241</v>
       </c>
-      <c r="F171" s="4" t="s">
+      <c r="F171" s="16" t="s">
         <v>402</v>
       </c>
     </row>
@@ -5647,7 +5651,7 @@
       <c r="E172" t="s">
         <v>242</v>
       </c>
-      <c r="F172" s="4" t="s">
+      <c r="F172" s="16" t="s">
         <v>399</v>
       </c>
     </row>
@@ -5667,7 +5671,7 @@
       <c r="E173" t="s">
         <v>237</v>
       </c>
-      <c r="F173" s="4" t="s">
+      <c r="F173" s="16" t="s">
         <v>401</v>
       </c>
     </row>
@@ -5687,7 +5691,7 @@
       <c r="E174" t="s">
         <v>239</v>
       </c>
-      <c r="F174" s="4" t="s">
+      <c r="F174" s="16" t="s">
         <v>400</v>
       </c>
     </row>
@@ -5707,7 +5711,7 @@
       <c r="E175" t="s">
         <v>240</v>
       </c>
-      <c r="F175" s="4" t="s">
+      <c r="F175" s="16" t="s">
         <v>403</v>
       </c>
     </row>
@@ -5727,7 +5731,7 @@
       <c r="E176" t="s">
         <v>136</v>
       </c>
-      <c r="F176" s="4">
+      <c r="F176" s="16">
         <v>11</v>
       </c>
     </row>
@@ -5747,7 +5751,7 @@
       <c r="E177" t="s">
         <v>243</v>
       </c>
-      <c r="F177" s="4">
+      <c r="F177" s="16">
         <v>13</v>
       </c>
     </row>
@@ -5767,7 +5771,7 @@
       <c r="E178" t="s">
         <v>241</v>
       </c>
-      <c r="F178" s="4" t="s">
+      <c r="F178" s="16" t="s">
         <v>402</v>
       </c>
     </row>
@@ -5787,7 +5791,7 @@
       <c r="E179" t="s">
         <v>242</v>
       </c>
-      <c r="F179" s="4" t="s">
+      <c r="F179" s="16" t="s">
         <v>399</v>
       </c>
     </row>
@@ -5797,6 +5801,3609 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F179"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="53.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" t="s">
+        <v>237</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" t="s">
+        <v>237</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" t="s">
+        <v>156</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" t="s">
+        <v>177</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s">
+        <v>152</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" t="s">
+        <v>191</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" t="s">
+        <v>196</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" t="s">
+        <v>146</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" t="s">
+        <v>212</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>146</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" t="s">
+        <v>156</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" t="s">
+        <v>152</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" t="s">
+        <v>156</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>16</v>
+      </c>
+      <c r="D22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>15</v>
+      </c>
+      <c r="D23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" t="s">
+        <v>146</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" t="s">
+        <v>196</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" t="s">
+        <v>138</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" t="s">
+        <v>143</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" t="s">
+        <v>143</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" t="s">
+        <v>153</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" t="s">
+        <v>143</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>7</v>
+      </c>
+      <c r="D30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E30" t="s">
+        <v>242</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>135</v>
+      </c>
+      <c r="E31" t="s">
+        <v>242</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>12</v>
+      </c>
+      <c r="C32">
+        <v>23</v>
+      </c>
+      <c r="D32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" t="s">
+        <v>161</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>11</v>
+      </c>
+      <c r="C33">
+        <v>21</v>
+      </c>
+      <c r="D33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" t="s">
+        <v>165</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>11</v>
+      </c>
+      <c r="C34">
+        <v>22</v>
+      </c>
+      <c r="D34" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" t="s">
+        <v>171</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>10</v>
+      </c>
+      <c r="C35">
+        <v>20</v>
+      </c>
+      <c r="D35" t="s">
+        <v>397</v>
+      </c>
+      <c r="E35" t="s">
+        <v>179</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>9</v>
+      </c>
+      <c r="C36">
+        <v>18</v>
+      </c>
+      <c r="D36" t="s">
+        <v>67</v>
+      </c>
+      <c r="E36" t="s">
+        <v>177</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>9</v>
+      </c>
+      <c r="C37">
+        <v>19</v>
+      </c>
+      <c r="D37" t="s">
+        <v>397</v>
+      </c>
+      <c r="E37" t="s">
+        <v>179</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>13</v>
+      </c>
+      <c r="C38">
+        <v>24</v>
+      </c>
+      <c r="D38" t="s">
+        <v>87</v>
+      </c>
+      <c r="E38" t="s">
+        <v>87</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>13</v>
+      </c>
+      <c r="C39">
+        <v>25</v>
+      </c>
+      <c r="D39" t="s">
+        <v>92</v>
+      </c>
+      <c r="E39" t="s">
+        <v>202</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>6</v>
+      </c>
+      <c r="C40">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s">
+        <v>31</v>
+      </c>
+      <c r="E40" t="s">
+        <v>143</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>6</v>
+      </c>
+      <c r="C41">
+        <v>12</v>
+      </c>
+      <c r="D41" t="s">
+        <v>94</v>
+      </c>
+      <c r="E41" t="s">
+        <v>204</v>
+      </c>
+      <c r="F41" s="16" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>8</v>
+      </c>
+      <c r="D42" t="s">
+        <v>100</v>
+      </c>
+      <c r="E42" t="s">
+        <v>209</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <v>9</v>
+      </c>
+      <c r="D43" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43" t="s">
+        <v>143</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>10</v>
+      </c>
+      <c r="D44" t="s">
+        <v>94</v>
+      </c>
+      <c r="E44" t="s">
+        <v>204</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>7</v>
+      </c>
+      <c r="C45">
+        <v>13</v>
+      </c>
+      <c r="D45" t="s">
+        <v>117</v>
+      </c>
+      <c r="E45" t="s">
+        <v>225</v>
+      </c>
+      <c r="F45" s="16" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>7</v>
+      </c>
+      <c r="C46">
+        <v>14</v>
+      </c>
+      <c r="D46" t="s">
+        <v>119</v>
+      </c>
+      <c r="E46" t="s">
+        <v>227</v>
+      </c>
+      <c r="F46" s="16" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>8</v>
+      </c>
+      <c r="C47">
+        <v>16</v>
+      </c>
+      <c r="D47" t="s">
+        <v>127</v>
+      </c>
+      <c r="E47" t="s">
+        <v>214</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>8</v>
+      </c>
+      <c r="C48">
+        <v>15</v>
+      </c>
+      <c r="D48" t="s">
+        <v>117</v>
+      </c>
+      <c r="E48" t="s">
+        <v>225</v>
+      </c>
+      <c r="F48" s="16" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49">
+        <v>4</v>
+      </c>
+      <c r="D49" t="s">
+        <v>35</v>
+      </c>
+      <c r="E49" t="s">
+        <v>147</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>35</v>
+      </c>
+      <c r="E50" t="s">
+        <v>147</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s">
+        <v>44</v>
+      </c>
+      <c r="E51" t="s">
+        <v>155</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>4</v>
+      </c>
+      <c r="C52">
+        <v>6</v>
+      </c>
+      <c r="D52" t="s">
+        <v>128</v>
+      </c>
+      <c r="E52" t="s">
+        <v>235</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53">
+        <v>7</v>
+      </c>
+      <c r="D53" t="s">
+        <v>134</v>
+      </c>
+      <c r="E53" t="s">
+        <v>241</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="C54">
+        <v>5</v>
+      </c>
+      <c r="D54" t="s">
+        <v>134</v>
+      </c>
+      <c r="E54" t="s">
+        <v>241</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+      <c r="D55" t="s">
+        <v>66</v>
+      </c>
+      <c r="E55" t="s">
+        <v>66</v>
+      </c>
+      <c r="F55" s="16" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>12</v>
+      </c>
+      <c r="C56">
+        <v>23</v>
+      </c>
+      <c r="D56" t="s">
+        <v>48</v>
+      </c>
+      <c r="E56" t="s">
+        <v>159</v>
+      </c>
+      <c r="F56" s="16" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>11</v>
+      </c>
+      <c r="C57">
+        <v>21</v>
+      </c>
+      <c r="D57" t="s">
+        <v>57</v>
+      </c>
+      <c r="E57" t="s">
+        <v>168</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>11</v>
+      </c>
+      <c r="C58">
+        <v>22</v>
+      </c>
+      <c r="D58" t="s">
+        <v>59</v>
+      </c>
+      <c r="E58" t="s">
+        <v>170</v>
+      </c>
+      <c r="F58" s="16" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>10</v>
+      </c>
+      <c r="C59">
+        <v>20</v>
+      </c>
+      <c r="D59" t="s">
+        <v>66</v>
+      </c>
+      <c r="E59" t="s">
+        <v>66</v>
+      </c>
+      <c r="F59" s="16" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>9</v>
+      </c>
+      <c r="C60">
+        <v>18</v>
+      </c>
+      <c r="D60" t="s">
+        <v>72</v>
+      </c>
+      <c r="E60" t="s">
+        <v>183</v>
+      </c>
+      <c r="F60" s="16" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>9</v>
+      </c>
+      <c r="C61">
+        <v>19</v>
+      </c>
+      <c r="D61" t="s">
+        <v>80</v>
+      </c>
+      <c r="E61" t="s">
+        <v>192</v>
+      </c>
+      <c r="F61" s="16" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>13</v>
+      </c>
+      <c r="C62">
+        <v>24</v>
+      </c>
+      <c r="D62" t="s">
+        <v>81</v>
+      </c>
+      <c r="E62" t="s">
+        <v>193</v>
+      </c>
+      <c r="F62" s="16" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>13</v>
+      </c>
+      <c r="C63">
+        <v>25</v>
+      </c>
+      <c r="D63" t="s">
+        <v>91</v>
+      </c>
+      <c r="E63" t="s">
+        <v>201</v>
+      </c>
+      <c r="F63" s="16" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>6</v>
+      </c>
+      <c r="C64">
+        <v>11</v>
+      </c>
+      <c r="D64" t="s">
+        <v>66</v>
+      </c>
+      <c r="E64" t="s">
+        <v>66</v>
+      </c>
+      <c r="F64" s="16" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>5</v>
+      </c>
+      <c r="C65">
+        <v>8</v>
+      </c>
+      <c r="D65" t="s">
+        <v>110</v>
+      </c>
+      <c r="E65" t="s">
+        <v>110</v>
+      </c>
+      <c r="F65" s="16" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>5</v>
+      </c>
+      <c r="C66">
+        <v>9</v>
+      </c>
+      <c r="D66" t="s">
+        <v>104</v>
+      </c>
+      <c r="E66" t="s">
+        <v>213</v>
+      </c>
+      <c r="F66" s="16" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>5</v>
+      </c>
+      <c r="C67">
+        <v>10</v>
+      </c>
+      <c r="D67" t="s">
+        <v>110</v>
+      </c>
+      <c r="E67" t="s">
+        <v>110</v>
+      </c>
+      <c r="F67" s="16" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>7</v>
+      </c>
+      <c r="C68">
+        <v>13</v>
+      </c>
+      <c r="D68" t="s">
+        <v>112</v>
+      </c>
+      <c r="E68" t="s">
+        <v>220</v>
+      </c>
+      <c r="F68" s="16" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>7</v>
+      </c>
+      <c r="C69">
+        <v>14</v>
+      </c>
+      <c r="D69" t="s">
+        <v>118</v>
+      </c>
+      <c r="E69" t="s">
+        <v>226</v>
+      </c>
+      <c r="F69" s="16" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>8</v>
+      </c>
+      <c r="C70">
+        <v>16</v>
+      </c>
+      <c r="D70" t="s">
+        <v>126</v>
+      </c>
+      <c r="E70" t="s">
+        <v>234</v>
+      </c>
+      <c r="F70" s="16" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>8</v>
+      </c>
+      <c r="C71">
+        <v>15</v>
+      </c>
+      <c r="D71" t="s">
+        <v>118</v>
+      </c>
+      <c r="E71" t="s">
+        <v>226</v>
+      </c>
+      <c r="F71" s="16" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+      <c r="D72" t="s">
+        <v>41</v>
+      </c>
+      <c r="E72" t="s">
+        <v>41</v>
+      </c>
+      <c r="F72" s="16" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73">
+        <v>4</v>
+      </c>
+      <c r="D73" t="s">
+        <v>33</v>
+      </c>
+      <c r="E73" t="s">
+        <v>145</v>
+      </c>
+      <c r="F73" s="16" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>41</v>
+      </c>
+      <c r="E74" t="s">
+        <v>41</v>
+      </c>
+      <c r="F74" s="16" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+      <c r="D75" t="s">
+        <v>43</v>
+      </c>
+      <c r="E75" t="s">
+        <v>154</v>
+      </c>
+      <c r="F75" s="16" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>4</v>
+      </c>
+      <c r="C76">
+        <v>6</v>
+      </c>
+      <c r="D76" t="s">
+        <v>129</v>
+      </c>
+      <c r="E76" t="s">
+        <v>236</v>
+      </c>
+      <c r="F76" s="16" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>4</v>
+      </c>
+      <c r="C77">
+        <v>7</v>
+      </c>
+      <c r="D77" t="s">
+        <v>132</v>
+      </c>
+      <c r="E77" t="s">
+        <v>239</v>
+      </c>
+      <c r="F77" s="16" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>3</v>
+      </c>
+      <c r="C78">
+        <v>5</v>
+      </c>
+      <c r="D78" t="s">
+        <v>132</v>
+      </c>
+      <c r="E78" t="s">
+        <v>239</v>
+      </c>
+      <c r="F78" s="16" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>12</v>
+      </c>
+      <c r="C79">
+        <v>23</v>
+      </c>
+      <c r="D79" t="s">
+        <v>51</v>
+      </c>
+      <c r="E79" t="s">
+        <v>162</v>
+      </c>
+      <c r="F79" s="16" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>11</v>
+      </c>
+      <c r="C80">
+        <v>21</v>
+      </c>
+      <c r="D80" t="s">
+        <v>58</v>
+      </c>
+      <c r="E80" t="s">
+        <v>169</v>
+      </c>
+      <c r="F80" s="16" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>11</v>
+      </c>
+      <c r="C81">
+        <v>22</v>
+      </c>
+      <c r="D81" t="s">
+        <v>51</v>
+      </c>
+      <c r="E81" t="s">
+        <v>162</v>
+      </c>
+      <c r="F81" s="16" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>10</v>
+      </c>
+      <c r="C82">
+        <v>20</v>
+      </c>
+      <c r="D82" t="s">
+        <v>33</v>
+      </c>
+      <c r="E82" t="s">
+        <v>145</v>
+      </c>
+      <c r="F82" s="16" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>9</v>
+      </c>
+      <c r="C83">
+        <v>18</v>
+      </c>
+      <c r="D83" t="s">
+        <v>71</v>
+      </c>
+      <c r="E83" t="s">
+        <v>182</v>
+      </c>
+      <c r="F83" s="16" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>9</v>
+      </c>
+      <c r="C84">
+        <v>19</v>
+      </c>
+      <c r="D84" t="s">
+        <v>75</v>
+      </c>
+      <c r="E84" t="s">
+        <v>187</v>
+      </c>
+      <c r="F84" s="16" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>13</v>
+      </c>
+      <c r="C85">
+        <v>24</v>
+      </c>
+      <c r="D85" t="s">
+        <v>82</v>
+      </c>
+      <c r="E85" t="s">
+        <v>194</v>
+      </c>
+      <c r="F85" s="16" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>13</v>
+      </c>
+      <c r="C86">
+        <v>25</v>
+      </c>
+      <c r="D86" t="s">
+        <v>89</v>
+      </c>
+      <c r="E86" t="s">
+        <v>200</v>
+      </c>
+      <c r="F86" s="16" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>6</v>
+      </c>
+      <c r="C87">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s">
+        <v>105</v>
+      </c>
+      <c r="E87" t="s">
+        <v>214</v>
+      </c>
+      <c r="F87" s="16" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>6</v>
+      </c>
+      <c r="C88">
+        <v>12</v>
+      </c>
+      <c r="D88" t="s">
+        <v>95</v>
+      </c>
+      <c r="E88" t="s">
+        <v>205</v>
+      </c>
+      <c r="F88" s="16" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>5</v>
+      </c>
+      <c r="C89">
+        <v>8</v>
+      </c>
+      <c r="D89" t="s">
+        <v>101</v>
+      </c>
+      <c r="E89" t="s">
+        <v>210</v>
+      </c>
+      <c r="F89" s="16" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>5</v>
+      </c>
+      <c r="C90">
+        <v>9</v>
+      </c>
+      <c r="D90" t="s">
+        <v>105</v>
+      </c>
+      <c r="E90" t="s">
+        <v>214</v>
+      </c>
+      <c r="F90" s="16" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>5</v>
+      </c>
+      <c r="C91">
+        <v>10</v>
+      </c>
+      <c r="D91" t="s">
+        <v>95</v>
+      </c>
+      <c r="E91" t="s">
+        <v>205</v>
+      </c>
+      <c r="F91" s="16" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>7</v>
+      </c>
+      <c r="C92">
+        <v>13</v>
+      </c>
+      <c r="D92" t="s">
+        <v>116</v>
+      </c>
+      <c r="E92" t="s">
+        <v>224</v>
+      </c>
+      <c r="F92" s="16" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>7</v>
+      </c>
+      <c r="C93">
+        <v>14</v>
+      </c>
+      <c r="D93" t="s">
+        <v>121</v>
+      </c>
+      <c r="E93" t="s">
+        <v>229</v>
+      </c>
+      <c r="F93" s="16" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>8</v>
+      </c>
+      <c r="C94">
+        <v>16</v>
+      </c>
+      <c r="D94" t="s">
+        <v>121</v>
+      </c>
+      <c r="E94" t="s">
+        <v>229</v>
+      </c>
+      <c r="F94" s="16" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>8</v>
+      </c>
+      <c r="C95">
+        <v>15</v>
+      </c>
+      <c r="D95" t="s">
+        <v>116</v>
+      </c>
+      <c r="E95" t="s">
+        <v>224</v>
+      </c>
+      <c r="F95" s="16" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>2</v>
+      </c>
+      <c r="C96">
+        <v>4</v>
+      </c>
+      <c r="D96" t="s">
+        <v>37</v>
+      </c>
+      <c r="E96" t="s">
+        <v>149</v>
+      </c>
+      <c r="F96" s="16" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97" t="s">
+        <v>38</v>
+      </c>
+      <c r="E97" t="s">
+        <v>150</v>
+      </c>
+      <c r="F97" s="16" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98">
+        <v>2</v>
+      </c>
+      <c r="D98" t="s">
+        <v>37</v>
+      </c>
+      <c r="E98" t="s">
+        <v>149</v>
+      </c>
+      <c r="F98" s="16" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>4</v>
+      </c>
+      <c r="C99">
+        <v>7</v>
+      </c>
+      <c r="D99" t="s">
+        <v>133</v>
+      </c>
+      <c r="E99" t="s">
+        <v>240</v>
+      </c>
+      <c r="F99" s="16" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>3</v>
+      </c>
+      <c r="C100">
+        <v>5</v>
+      </c>
+      <c r="D100" t="s">
+        <v>133</v>
+      </c>
+      <c r="E100" t="s">
+        <v>240</v>
+      </c>
+      <c r="F100" s="16" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>2</v>
+      </c>
+      <c r="C101">
+        <v>3</v>
+      </c>
+      <c r="D101" t="s">
+        <v>27</v>
+      </c>
+      <c r="E101" t="s">
+        <v>139</v>
+      </c>
+      <c r="F101" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>12</v>
+      </c>
+      <c r="C102">
+        <v>23</v>
+      </c>
+      <c r="D102" t="s">
+        <v>52</v>
+      </c>
+      <c r="E102" t="s">
+        <v>163</v>
+      </c>
+      <c r="F102" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>11</v>
+      </c>
+      <c r="C103">
+        <v>21</v>
+      </c>
+      <c r="D103" t="s">
+        <v>53</v>
+      </c>
+      <c r="E103" t="s">
+        <v>164</v>
+      </c>
+      <c r="F103" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>11</v>
+      </c>
+      <c r="C104">
+        <v>22</v>
+      </c>
+      <c r="D104" t="s">
+        <v>62</v>
+      </c>
+      <c r="E104" t="s">
+        <v>173</v>
+      </c>
+      <c r="F104" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>10</v>
+      </c>
+      <c r="C105">
+        <v>20</v>
+      </c>
+      <c r="D105" t="s">
+        <v>65</v>
+      </c>
+      <c r="E105" t="s">
+        <v>176</v>
+      </c>
+      <c r="F105" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>9</v>
+      </c>
+      <c r="C106">
+        <v>18</v>
+      </c>
+      <c r="D106" t="s">
+        <v>398</v>
+      </c>
+      <c r="E106" t="s">
+        <v>184</v>
+      </c>
+      <c r="F106" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>9</v>
+      </c>
+      <c r="C107">
+        <v>19</v>
+      </c>
+      <c r="D107" t="s">
+        <v>76</v>
+      </c>
+      <c r="E107" t="s">
+        <v>188</v>
+      </c>
+      <c r="F107" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>13</v>
+      </c>
+      <c r="C108">
+        <v>24</v>
+      </c>
+      <c r="D108" t="s">
+        <v>83</v>
+      </c>
+      <c r="E108" t="s">
+        <v>195</v>
+      </c>
+      <c r="F108" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>13</v>
+      </c>
+      <c r="C109">
+        <v>25</v>
+      </c>
+      <c r="D109" t="s">
+        <v>88</v>
+      </c>
+      <c r="E109" t="s">
+        <v>199</v>
+      </c>
+      <c r="F109" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>6</v>
+      </c>
+      <c r="C110">
+        <v>11</v>
+      </c>
+      <c r="D110" t="s">
+        <v>53</v>
+      </c>
+      <c r="E110" t="s">
+        <v>164</v>
+      </c>
+      <c r="F110" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>6</v>
+      </c>
+      <c r="C111">
+        <v>12</v>
+      </c>
+      <c r="D111" t="s">
+        <v>97</v>
+      </c>
+      <c r="E111" t="s">
+        <v>207</v>
+      </c>
+      <c r="F111" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>5</v>
+      </c>
+      <c r="C112">
+        <v>8</v>
+      </c>
+      <c r="D112" t="s">
+        <v>99</v>
+      </c>
+      <c r="E112" t="s">
+        <v>99</v>
+      </c>
+      <c r="F112" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>5</v>
+      </c>
+      <c r="C113">
+        <v>9</v>
+      </c>
+      <c r="D113" t="s">
+        <v>53</v>
+      </c>
+      <c r="E113" t="s">
+        <v>164</v>
+      </c>
+      <c r="F113" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>5</v>
+      </c>
+      <c r="C114">
+        <v>10</v>
+      </c>
+      <c r="D114" t="s">
+        <v>97</v>
+      </c>
+      <c r="E114" t="s">
+        <v>207</v>
+      </c>
+      <c r="F114" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>7</v>
+      </c>
+      <c r="C115">
+        <v>13</v>
+      </c>
+      <c r="D115" t="s">
+        <v>115</v>
+      </c>
+      <c r="E115" t="s">
+        <v>223</v>
+      </c>
+      <c r="F115" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>7</v>
+      </c>
+      <c r="C116">
+        <v>14</v>
+      </c>
+      <c r="D116" t="s">
+        <v>123</v>
+      </c>
+      <c r="E116" t="s">
+        <v>231</v>
+      </c>
+      <c r="F116" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>8</v>
+      </c>
+      <c r="C117">
+        <v>16</v>
+      </c>
+      <c r="D117" t="s">
+        <v>124</v>
+      </c>
+      <c r="E117" t="s">
+        <v>232</v>
+      </c>
+      <c r="F117" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>8</v>
+      </c>
+      <c r="C118">
+        <v>15</v>
+      </c>
+      <c r="D118" t="s">
+        <v>124</v>
+      </c>
+      <c r="E118" t="s">
+        <v>232</v>
+      </c>
+      <c r="F118" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>2</v>
+      </c>
+      <c r="C119">
+        <v>4</v>
+      </c>
+      <c r="D119" t="s">
+        <v>32</v>
+      </c>
+      <c r="E119" t="s">
+        <v>144</v>
+      </c>
+      <c r="F119" s="16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+      <c r="D120" t="s">
+        <v>39</v>
+      </c>
+      <c r="E120" t="s">
+        <v>151</v>
+      </c>
+      <c r="F120" s="16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121">
+        <v>2</v>
+      </c>
+      <c r="D121" t="s">
+        <v>47</v>
+      </c>
+      <c r="E121" t="s">
+        <v>158</v>
+      </c>
+      <c r="F121" s="16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>4</v>
+      </c>
+      <c r="C122">
+        <v>6</v>
+      </c>
+      <c r="D122" t="s">
+        <v>136</v>
+      </c>
+      <c r="E122" t="s">
+        <v>136</v>
+      </c>
+      <c r="F122" s="16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>4</v>
+      </c>
+      <c r="C123">
+        <v>7</v>
+      </c>
+      <c r="D123" t="s">
+        <v>47</v>
+      </c>
+      <c r="E123" t="s">
+        <v>158</v>
+      </c>
+      <c r="F123" s="16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>3</v>
+      </c>
+      <c r="C124">
+        <v>5</v>
+      </c>
+      <c r="D124" t="s">
+        <v>136</v>
+      </c>
+      <c r="E124" t="s">
+        <v>136</v>
+      </c>
+      <c r="F124" s="16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>2</v>
+      </c>
+      <c r="C125">
+        <v>3</v>
+      </c>
+      <c r="D125" t="s">
+        <v>28</v>
+      </c>
+      <c r="E125" t="s">
+        <v>140</v>
+      </c>
+      <c r="F125" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>12</v>
+      </c>
+      <c r="C126">
+        <v>23</v>
+      </c>
+      <c r="D126" t="s">
+        <v>49</v>
+      </c>
+      <c r="E126" t="s">
+        <v>160</v>
+      </c>
+      <c r="F126" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>11</v>
+      </c>
+      <c r="C127">
+        <v>21</v>
+      </c>
+      <c r="D127" t="s">
+        <v>49</v>
+      </c>
+      <c r="E127" t="s">
+        <v>160</v>
+      </c>
+      <c r="F127" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>11</v>
+      </c>
+      <c r="C128">
+        <v>22</v>
+      </c>
+      <c r="D128" t="s">
+        <v>61</v>
+      </c>
+      <c r="E128" t="s">
+        <v>172</v>
+      </c>
+      <c r="F128" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>10</v>
+      </c>
+      <c r="C129">
+        <v>20</v>
+      </c>
+      <c r="D129" t="s">
+        <v>64</v>
+      </c>
+      <c r="E129" t="s">
+        <v>175</v>
+      </c>
+      <c r="F129" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>9</v>
+      </c>
+      <c r="C130">
+        <v>18</v>
+      </c>
+      <c r="D130" t="s">
+        <v>74</v>
+      </c>
+      <c r="E130" t="s">
+        <v>186</v>
+      </c>
+      <c r="F130" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>9</v>
+      </c>
+      <c r="C131">
+        <v>19</v>
+      </c>
+      <c r="D131" t="s">
+        <v>77</v>
+      </c>
+      <c r="E131" t="s">
+        <v>189</v>
+      </c>
+      <c r="F131" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>13</v>
+      </c>
+      <c r="C132">
+        <v>24</v>
+      </c>
+      <c r="D132" t="s">
+        <v>85</v>
+      </c>
+      <c r="E132" t="s">
+        <v>197</v>
+      </c>
+      <c r="F132" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>13</v>
+      </c>
+      <c r="C133">
+        <v>25</v>
+      </c>
+      <c r="D133" t="s">
+        <v>90</v>
+      </c>
+      <c r="E133" t="s">
+        <v>167</v>
+      </c>
+      <c r="F133" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>6</v>
+      </c>
+      <c r="C134">
+        <v>11</v>
+      </c>
+      <c r="D134" t="s">
+        <v>93</v>
+      </c>
+      <c r="E134" t="s">
+        <v>203</v>
+      </c>
+      <c r="F134" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>6</v>
+      </c>
+      <c r="C135">
+        <v>12</v>
+      </c>
+      <c r="D135" t="s">
+        <v>98</v>
+      </c>
+      <c r="E135" t="s">
+        <v>208</v>
+      </c>
+      <c r="F135" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>5</v>
+      </c>
+      <c r="C136">
+        <v>8</v>
+      </c>
+      <c r="D136" t="s">
+        <v>28</v>
+      </c>
+      <c r="E136" t="s">
+        <v>140</v>
+      </c>
+      <c r="F136" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>5</v>
+      </c>
+      <c r="C137">
+        <v>9</v>
+      </c>
+      <c r="D137" t="s">
+        <v>108</v>
+      </c>
+      <c r="E137" t="s">
+        <v>217</v>
+      </c>
+      <c r="F137" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>5</v>
+      </c>
+      <c r="C138">
+        <v>10</v>
+      </c>
+      <c r="D138" t="s">
+        <v>98</v>
+      </c>
+      <c r="E138" t="s">
+        <v>208</v>
+      </c>
+      <c r="F138" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>7</v>
+      </c>
+      <c r="C139">
+        <v>13</v>
+      </c>
+      <c r="D139" t="s">
+        <v>114</v>
+      </c>
+      <c r="E139" t="s">
+        <v>222</v>
+      </c>
+      <c r="F139" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>7</v>
+      </c>
+      <c r="C140">
+        <v>14</v>
+      </c>
+      <c r="D140" t="s">
+        <v>120</v>
+      </c>
+      <c r="E140" t="s">
+        <v>228</v>
+      </c>
+      <c r="F140" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>8</v>
+      </c>
+      <c r="C141">
+        <v>16</v>
+      </c>
+      <c r="D141" t="s">
+        <v>120</v>
+      </c>
+      <c r="E141" t="s">
+        <v>228</v>
+      </c>
+      <c r="F141" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>8</v>
+      </c>
+      <c r="C142">
+        <v>15</v>
+      </c>
+      <c r="D142" t="s">
+        <v>114</v>
+      </c>
+      <c r="E142" t="s">
+        <v>222</v>
+      </c>
+      <c r="F142" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>2</v>
+      </c>
+      <c r="C143">
+        <v>4</v>
+      </c>
+      <c r="D143" t="s">
+        <v>30</v>
+      </c>
+      <c r="E143" t="s">
+        <v>142</v>
+      </c>
+      <c r="F143" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
+      <c r="C144">
+        <v>2</v>
+      </c>
+      <c r="D144" t="s">
+        <v>46</v>
+      </c>
+      <c r="E144" t="s">
+        <v>157</v>
+      </c>
+      <c r="F144" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>6</v>
+      </c>
+      <c r="C145">
+        <v>11</v>
+      </c>
+      <c r="D145" t="s">
+        <v>46</v>
+      </c>
+      <c r="E145" t="s">
+        <v>157</v>
+      </c>
+      <c r="F145" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>4</v>
+      </c>
+      <c r="C146">
+        <v>6</v>
+      </c>
+      <c r="D146" t="s">
+        <v>137</v>
+      </c>
+      <c r="E146" t="s">
+        <v>243</v>
+      </c>
+      <c r="F146" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>4</v>
+      </c>
+      <c r="C147">
+        <v>7</v>
+      </c>
+      <c r="D147" t="s">
+        <v>131</v>
+      </c>
+      <c r="E147" t="s">
+        <v>238</v>
+      </c>
+      <c r="F147" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>3</v>
+      </c>
+      <c r="C148">
+        <v>5</v>
+      </c>
+      <c r="D148" t="s">
+        <v>137</v>
+      </c>
+      <c r="E148" t="s">
+        <v>243</v>
+      </c>
+      <c r="F148" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>2</v>
+      </c>
+      <c r="C149">
+        <v>3</v>
+      </c>
+      <c r="D149" t="s">
+        <v>29</v>
+      </c>
+      <c r="E149" t="s">
+        <v>141</v>
+      </c>
+      <c r="F149" s="16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>11</v>
+      </c>
+      <c r="C150">
+        <v>21</v>
+      </c>
+      <c r="D150" t="s">
+        <v>56</v>
+      </c>
+      <c r="E150" t="s">
+        <v>167</v>
+      </c>
+      <c r="F150" s="16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>11</v>
+      </c>
+      <c r="C151">
+        <v>22</v>
+      </c>
+      <c r="D151" t="s">
+        <v>56</v>
+      </c>
+      <c r="E151" t="s">
+        <v>167</v>
+      </c>
+      <c r="F151" s="16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>10</v>
+      </c>
+      <c r="C152">
+        <v>20</v>
+      </c>
+      <c r="D152" t="s">
+        <v>68</v>
+      </c>
+      <c r="E152" t="s">
+        <v>178</v>
+      </c>
+      <c r="F152" s="16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>9</v>
+      </c>
+      <c r="C153">
+        <v>18</v>
+      </c>
+      <c r="D153" t="s">
+        <v>73</v>
+      </c>
+      <c r="E153" t="s">
+        <v>185</v>
+      </c>
+      <c r="F153" s="16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>9</v>
+      </c>
+      <c r="C154">
+        <v>19</v>
+      </c>
+      <c r="D154" t="s">
+        <v>68</v>
+      </c>
+      <c r="E154" t="s">
+        <v>178</v>
+      </c>
+      <c r="F154" s="16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>13</v>
+      </c>
+      <c r="C155">
+        <v>24</v>
+      </c>
+      <c r="D155" t="s">
+        <v>86</v>
+      </c>
+      <c r="E155" t="s">
+        <v>198</v>
+      </c>
+      <c r="F155" s="16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>6</v>
+      </c>
+      <c r="C156">
+        <v>12</v>
+      </c>
+      <c r="D156" t="s">
+        <v>96</v>
+      </c>
+      <c r="E156" t="s">
+        <v>206</v>
+      </c>
+      <c r="F156" s="16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>5</v>
+      </c>
+      <c r="C157">
+        <v>8</v>
+      </c>
+      <c r="D157" t="s">
+        <v>102</v>
+      </c>
+      <c r="E157" t="s">
+        <v>211</v>
+      </c>
+      <c r="F157" s="16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>5</v>
+      </c>
+      <c r="C158">
+        <v>9</v>
+      </c>
+      <c r="D158" t="s">
+        <v>106</v>
+      </c>
+      <c r="E158" t="s">
+        <v>215</v>
+      </c>
+      <c r="F158" s="16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>5</v>
+      </c>
+      <c r="C159">
+        <v>10</v>
+      </c>
+      <c r="D159" t="s">
+        <v>96</v>
+      </c>
+      <c r="E159" t="s">
+        <v>206</v>
+      </c>
+      <c r="F159" s="16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>7</v>
+      </c>
+      <c r="C160">
+        <v>13</v>
+      </c>
+      <c r="D160" t="s">
+        <v>111</v>
+      </c>
+      <c r="E160" t="s">
+        <v>219</v>
+      </c>
+      <c r="F160" s="16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>7</v>
+      </c>
+      <c r="C161">
+        <v>14</v>
+      </c>
+      <c r="D161" t="s">
+        <v>122</v>
+      </c>
+      <c r="E161" t="s">
+        <v>230</v>
+      </c>
+      <c r="F161" s="16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>8</v>
+      </c>
+      <c r="C162">
+        <v>16</v>
+      </c>
+      <c r="D162" t="s">
+        <v>125</v>
+      </c>
+      <c r="E162" t="s">
+        <v>233</v>
+      </c>
+      <c r="F162" s="16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>8</v>
+      </c>
+      <c r="C163">
+        <v>15</v>
+      </c>
+      <c r="D163" t="s">
+        <v>125</v>
+      </c>
+      <c r="E163" t="s">
+        <v>233</v>
+      </c>
+      <c r="F163" s="16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>2</v>
+      </c>
+      <c r="C164">
+        <v>4</v>
+      </c>
+      <c r="D164" t="s">
+        <v>36</v>
+      </c>
+      <c r="E164" t="s">
+        <v>148</v>
+      </c>
+      <c r="F164" s="16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>4</v>
+      </c>
+      <c r="C165">
+        <v>6</v>
+      </c>
+      <c r="D165" t="s">
+        <v>36</v>
+      </c>
+      <c r="E165" t="s">
+        <v>148</v>
+      </c>
+      <c r="F165" s="16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>2</v>
+      </c>
+      <c r="C166">
+        <v>3</v>
+      </c>
+      <c r="D166" t="s">
+        <v>109</v>
+      </c>
+      <c r="E166" t="s">
+        <v>218</v>
+      </c>
+      <c r="F166" s="16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>11</v>
+      </c>
+      <c r="C167">
+        <v>21</v>
+      </c>
+      <c r="D167" t="s">
+        <v>55</v>
+      </c>
+      <c r="E167" t="s">
+        <v>166</v>
+      </c>
+      <c r="F167" s="16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>11</v>
+      </c>
+      <c r="C168">
+        <v>22</v>
+      </c>
+      <c r="D168" t="s">
+        <v>63</v>
+      </c>
+      <c r="E168" t="s">
+        <v>174</v>
+      </c>
+      <c r="F168" s="16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>9</v>
+      </c>
+      <c r="C169">
+        <v>18</v>
+      </c>
+      <c r="D169" t="s">
+        <v>69</v>
+      </c>
+      <c r="E169" t="s">
+        <v>180</v>
+      </c>
+      <c r="F169" s="16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>9</v>
+      </c>
+      <c r="C170">
+        <v>19</v>
+      </c>
+      <c r="D170" t="s">
+        <v>78</v>
+      </c>
+      <c r="E170" t="s">
+        <v>190</v>
+      </c>
+      <c r="F170" s="16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>5</v>
+      </c>
+      <c r="C171">
+        <v>8</v>
+      </c>
+      <c r="D171" t="s">
+        <v>109</v>
+      </c>
+      <c r="E171" t="s">
+        <v>218</v>
+      </c>
+      <c r="F171" s="16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>5</v>
+      </c>
+      <c r="C172">
+        <v>9</v>
+      </c>
+      <c r="D172" t="s">
+        <v>107</v>
+      </c>
+      <c r="E172" t="s">
+        <v>216</v>
+      </c>
+      <c r="F172" s="16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>5</v>
+      </c>
+      <c r="C173">
+        <v>10</v>
+      </c>
+      <c r="D173" t="s">
+        <v>109</v>
+      </c>
+      <c r="E173" t="s">
+        <v>218</v>
+      </c>
+      <c r="F173" s="16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>7</v>
+      </c>
+      <c r="C174">
+        <v>13</v>
+      </c>
+      <c r="D174" t="s">
+        <v>113</v>
+      </c>
+      <c r="E174" t="s">
+        <v>221</v>
+      </c>
+      <c r="F174" s="16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>8</v>
+      </c>
+      <c r="C175">
+        <v>15</v>
+      </c>
+      <c r="D175" t="s">
+        <v>113</v>
+      </c>
+      <c r="E175" t="s">
+        <v>221</v>
+      </c>
+      <c r="F175" s="16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>9</v>
+      </c>
+      <c r="C176">
+        <v>18</v>
+      </c>
+      <c r="D176" t="s">
+        <v>70</v>
+      </c>
+      <c r="E176" t="s">
+        <v>181</v>
+      </c>
+      <c r="F176" s="16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>8</v>
+      </c>
+      <c r="C177">
+        <v>17</v>
+      </c>
+      <c r="D177" t="s">
+        <v>119</v>
+      </c>
+      <c r="E177" t="s">
+        <v>227</v>
+      </c>
+      <c r="F177" s="16" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>8</v>
+      </c>
+      <c r="C178">
+        <v>17</v>
+      </c>
+      <c r="D178" t="s">
+        <v>120</v>
+      </c>
+      <c r="E178" t="s">
+        <v>228</v>
+      </c>
+      <c r="F178" s="16" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>8</v>
+      </c>
+      <c r="C179">
+        <v>17</v>
+      </c>
+      <c r="D179" t="s">
+        <v>122</v>
+      </c>
+      <c r="E179" t="s">
+        <v>230</v>
+      </c>
+      <c r="F179" s="16" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:F179">
+    <sortCondition ref="F2:F179"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H154"/>
   <sheetViews>
@@ -8891,7 +12498,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I179"/>
   <sheetViews>
@@ -14829,7 +18436,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E178"/>
   <sheetViews>
